--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 13C/PRUEBA_TEMPERATURA_23_13C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 13C/PRUEBA_TEMPERATURA_23_13C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,160 +73,115 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-11 03:04:14</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:05:15</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:06:17</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:07:19</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:08:21</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:09:23</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:10:24</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:11:26</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:12:28</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:13:30</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:14:32</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:15:34</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:16:35</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:17:37</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:18:39</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:19:41</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:20:43</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:21:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:22:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:23:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:24:50</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:25:52</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:26:54</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:27:55</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:28:57</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:29:59</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:31:01</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:32:03</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:33:05</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:34:06</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:35:08</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:36:10</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:37:12</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:38:14</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:39:15</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:40:17</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:41:19</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:42:21</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:43:23</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:44:25</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:45:26</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:46:28</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:47:30</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:48:32</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:49:34</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:50:36</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:51:37</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:52:39</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:53:41</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:54:43</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:55:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 03:56:46</t>
+    <t>2023-12-11 22:13:15</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:14:16</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:15:18</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:16:20</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:17:21</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:18:23</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:19:25</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:20:26</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:21:28</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:22:30</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:23:31</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:24:33</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:25:35</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:26:37</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:27:38</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:28:40</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:29:42</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:30:43</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:31:45</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:32:47</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:33:48</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:34:50</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:35:52</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:36:53</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:37:55</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:38:57</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:39:59</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:41:00</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:42:02</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:43:04</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:44:05</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:45:07</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:46:09</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:47:10</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:48:12</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:49:14</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:50:15</t>
   </si>
 </sst>
 </file>
@@ -893,165 +848,120 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$53</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>25.1486013986014</c:v>
+                  <c:v>26.328671328671302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.739510489510501</c:v>
+                  <c:v>24.361888111888099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.166083916083899</c:v>
+                  <c:v>22.0017482517482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.723776223776198</c:v>
+                  <c:v>21.346153846153801</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>20.5594405594405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.5594405594405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.2482517482517</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.986013986014001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.986013986014001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.8548951048951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.199300699300601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.4615384615384</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.199300699300601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.068181818181799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.330419580419498</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.068181818181799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.674825174825099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.674825174825099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.543706293706201</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>17.937062937062901</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
+                  <c:v>17.805944055944</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.805944055944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.805944055944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.543706293706201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.805944055944</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.805944055944</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.281468531468501</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>17.937062937062901</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="29">
+                  <c:v>17.805944055944</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.1503496503496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.281468531468501</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>17.412587412587399</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.888111888111801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.888111888111801</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.756993006993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.494755244755201</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.756993006993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.9702797202797</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.9702797202797</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.494755244755201</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.1013986013986</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.9702797202797</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.9702797202797</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.1013986013986</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15.7080419580419</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16.232517482517402</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16.1013986013986</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.9702797202797</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.232517482517402</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.839160839160799</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15.4458041958042</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15.1835664335664</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.1835664335664</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15.4458041958042</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15.1835664335664</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15.1835664335664</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14.921328671328601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15.0524475524475</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.921328671328601</c:v>
+                  <c:v>17.543706293706201</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15.314685314685301</c:v>
+                  <c:v>17.674825174825099</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.314685314685301</c:v>
+                  <c:v>19.117132867132899</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15.0524475524475</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>15.314685314685301</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15.4458041958042</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15.314685314685301</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15.1835664335664</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15.0524475524475</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15.1835664335664</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>15.1835664335664</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>15.0524475524475</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>15.1835664335664</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>15.314685314685301</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15.314685314685301</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15.314685314685301</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>14.921328671328601</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>17.281468531468501</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18.592657342657301</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,37 +1218,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.314685314685301</c:v>
+                  <c:v>17.543706293706201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.1835664335664</c:v>
+                  <c:v>17.805944055944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0524475524475</c:v>
+                  <c:v>17.805944055944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.1835664335664</c:v>
+                  <c:v>17.281468531468501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.1835664335664</c:v>
+                  <c:v>17.937062937062901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.0524475524475</c:v>
+                  <c:v>17.805944055944</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.1835664335664</c:v>
+                  <c:v>17.1503496503496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.314685314685301</c:v>
+                  <c:v>17.281468531468501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.314685314685301</c:v>
+                  <c:v>17.412587412587399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.314685314685301</c:v>
+                  <c:v>17.543706293706201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.921328671328601</c:v>
+                  <c:v>17.674825174825099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,10 +1345,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15.183566433566403</c:v>
+                  <c:v>17.567546090273311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.183566433566403</c:v>
+                  <c:v>17.567546090273311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3209,17 +3119,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.1486013986014</v>
+        <v>26.328671328671302</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.8599537033878732E-2</v>
+        <v>4.2824074043892324E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3236,14 +3146,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.739510489510501</v>
+        <v>24.361888111888099</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
         <f>COUNT(E:E)-2</f>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3260,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.166083916083899</v>
+        <v>22.0017482517482</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3277,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.723776223776198</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3294,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.937062937062901</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3311,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.937062937062901</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3328,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>17.412587412587399</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3345,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.888111888111801</v>
+        <v>19.2482517482517</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3362,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.888111888111801</v>
+        <v>18.986013986014001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3379,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.756993006993</v>
+        <v>18.986013986014001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3396,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.494755244755201</v>
+        <v>18.8548951048951</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3413,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.756993006993</v>
+        <v>18.199300699300601</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3430,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.9702797202797</v>
+        <v>18.4615384615384</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3447,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.9702797202797</v>
+        <v>18.199300699300601</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3464,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.494755244755201</v>
+        <v>18.068181818181799</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3481,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.1013986013986</v>
+        <v>18.330419580419498</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3498,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.9702797202797</v>
+        <v>18.068181818181799</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3515,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.9702797202797</v>
+        <v>17.674825174825099</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3532,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.1013986013986</v>
+        <v>17.674825174825099</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3549,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.7080419580419</v>
+        <v>17.543706293706201</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3566,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.232517482517402</v>
+        <v>17.937062937062901</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3583,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.1013986013986</v>
+        <v>17.805944055944</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3600,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.9702797202797</v>
+        <v>17.805944055944</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3617,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.232517482517402</v>
+        <v>17.805944055944</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3634,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>15.839160839160799</v>
+        <v>17.543706293706201</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3651,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>15.4458041958042</v>
+        <v>17.805944055944</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3668,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>15.1835664335664</v>
+        <v>17.805944055944</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3685,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>15.1835664335664</v>
+        <v>17.281468531468501</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3702,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>15.4458041958042</v>
+        <v>17.937062937062901</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3719,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>15.1835664335664</v>
+        <v>17.805944055944</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3736,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>15.1835664335664</v>
+        <v>17.1503496503496</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3753,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>14.921328671328601</v>
+        <v>17.281468531468501</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3770,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>15.0524475524475</v>
+        <v>17.412587412587399</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3787,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>14.921328671328601</v>
+        <v>17.543706293706201</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3804,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>15.314685314685301</v>
+        <v>17.674825174825099</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3821,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>15.314685314685301</v>
+        <v>19.117132867132899</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3838,262 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>15.0524475524475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>23</v>
-      </c>
-      <c r="B39">
-        <v>13</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>15.314685314685301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>23</v>
-      </c>
-      <c r="B40">
-        <v>13</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>15.4458041958042</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>23</v>
-      </c>
-      <c r="B41">
-        <v>13</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>15.314685314685301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>23</v>
-      </c>
-      <c r="B42">
-        <v>13</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>15.1835664335664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>23</v>
-      </c>
-      <c r="B43">
-        <v>13</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>15.0524475524475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>23</v>
-      </c>
-      <c r="B44">
-        <v>13</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>15.1835664335664</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>13</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>15.1835664335664</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>23</v>
-      </c>
-      <c r="B46">
-        <v>13</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>15.0524475524475</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>23</v>
-      </c>
-      <c r="B47">
-        <v>13</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>15.1835664335664</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>23</v>
-      </c>
-      <c r="B48">
-        <v>13</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>15.314685314685301</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>23</v>
-      </c>
-      <c r="B49">
-        <v>13</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>15.314685314685301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>23</v>
-      </c>
-      <c r="B50">
-        <v>13</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>15.314685314685301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>23</v>
-      </c>
-      <c r="B51">
-        <v>13</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>14.921328671328601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>23</v>
-      </c>
-      <c r="B52">
-        <v>13</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>17.281468531468501</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>23</v>
-      </c>
-      <c r="B53">
-        <v>13</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>18.592657342657301</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
   </sheetData>
@@ -4106,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4132,45 +3787,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:44:25</v>
+        <v>2023-12-11 22:37:55</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>15.314685314685301</v>
+        <v>17.543706293706201</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>15.183566433566403</v>
+        <v>17.567546090273311</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:45:26</v>
+        <v>2023-12-11 22:38:57</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>15.1835664335664</v>
+        <v>17.805944055944</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>15.183566433566403</v>
+        <v>17.567546090273311</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:46:28</v>
+        <v>2023-12-11 22:39:59</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>15.0524475524475</v>
+        <v>17.805944055944</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -4179,35 +3834,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:47:30</v>
+        <v>2023-12-11 22:41:00</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>15.1835664335664</v>
+        <v>17.281468531468501</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.13111888111890019</v>
+        <v>0.26104305095725211</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:48:32</v>
+        <v>2023-12-11 22:42:02</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>15.1835664335664</v>
+        <v>17.937062937062901</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:49:34</v>
+        <v>2023-12-11 22:43:04</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>15.0524475524475</v>
+        <v>17.805944055944</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -4216,36 +3871,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:50:36</v>
+        <v>2023-12-11 22:44:05</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>15.1835664335664</v>
+        <v>17.1503496503496</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>15.314685314685301</v>
+        <v>17.937062937062901</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:51:37</v>
+        <v>2023-12-11 22:45:07</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>15.314685314685301</v>
+        <v>17.281468531468501</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:52:39</v>
+        <v>2023-12-11 22:46:09</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>15.314685314685301</v>
+        <v>17.412587412587399</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -4254,25 +3909,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:53:41</v>
+        <v>2023-12-11 22:47:10</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>15.314685314685301</v>
+        <v>17.543706293706201</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>14.921328671328601</v>
+        <v>17.1503496503496</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 03:54:43</v>
+        <v>2023-12-11 22:48:12</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>14.921328671328601</v>
+        <v>17.674825174825099</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
